--- a/biology/Zoologie/Amphisbaena_nigricauda/Amphisbaena_nigricauda.xlsx
+++ b/biology/Zoologie/Amphisbaena_nigricauda/Amphisbaena_nigricauda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena nigricauda est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena nigricauda est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État d'Espírito Santo au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État d'Espírito Santo au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gans, 1966 : Studies on amphisbaenids (Amphisbaenia, Reptilia). 3. The small species from southern South America commonly identified as Amphisbaena darwini. Bulletin of the American Museum of Natural History, vol. 134, no 3, p. 185-260 (texte intégral).</t>
         </is>
